--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Matsumoto</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.37</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.39</v>
+        <v>4.3</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2.14</v>
       </c>
       <c r="I3" t="n">
-        <v>11.5</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>2.12</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.12</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1063,31 +1063,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>2.48</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,33 +1193,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>3.35</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1312,141 +1312,6 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-10-15</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20:20:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Japanese J League 3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Kanazawa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Matsumoto</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>5.1</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.95</v>
+        <v>1.28</v>
       </c>
       <c r="O2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.28</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.02</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.31</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>1.29</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3</v>
+        <v>1.43</v>
       </c>
       <c r="H3" t="n">
-        <v>2.14</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>1.28</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>2.04</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>2.28</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1063,31 +1063,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2.68</v>
+        <v>980</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,135 +1183,270 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ceara SC Fortaleza</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I6" t="n">
+        <v>980</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K6" t="n">
+        <v>950</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>2025-10-15</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>20:20:00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Deportivo Pereira</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Millonarios</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="F7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K7" t="n">
+        <v>980</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.31</v>
@@ -709,10 +709,10 @@
         <v>1.31</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="G3" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.28</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="I4" t="n">
         <v>2.28</v>
@@ -952,7 +952,7 @@
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>980</v>
+        <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.09</v>
+        <v>2.48</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>1.42</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>980</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -805,13 +805,13 @@
         <v>1.37</v>
       </c>
       <c r="G3" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="H3" t="n">
         <v>10.5</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J3" t="n">
         <v>5.1</v>
@@ -946,13 +946,13 @@
         <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
         <v>2.28</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
         <v>2.44</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -805,28 +805,28 @@
         <v>1.37</v>
       </c>
       <c r="G3" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
         <v>10.5</v>
       </c>
       <c r="I3" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K3" t="n">
         <v>5.6</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -838,76 +838,76 @@
         <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4">
@@ -940,10 +940,10 @@
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I4" t="n">
         <v>2.24</v>
@@ -955,94 +955,94 @@
         <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
         <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
         <v>2.32</v>
@@ -1081,7 +1081,7 @@
         <v>3.65</v>
       </c>
       <c r="I5" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1090,94 +1090,94 @@
         <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1210,109 +1210,109 @@
         <v>2.48</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H6" t="n">
         <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1354,22 +1354,22 @@
         <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
         <v>1.6</v>
@@ -1378,76 +1378,76 @@
         <v>2.42</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.99</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3</v>
+        <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.31</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>1.31</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G3" t="n">
         <v>1.38</v>
@@ -841,7 +841,7 @@
         <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>2.2</v>
@@ -943,10 +943,10 @@
         <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -964,7 +964,7 @@
         <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
         <v>1.67</v>
@@ -1030,7 +1030,7 @@
         <v>120</v>
       </c>
       <c r="AK4" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
         <v>95</v>
@@ -1105,19 +1105,19 @@
         <v>1.77</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
         <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="T5" t="n">
         <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V5" t="n">
         <v>1.26</v>
@@ -1210,13 +1210,13 @@
         <v>2.48</v>
       </c>
       <c r="G6" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
         <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.2</v>
@@ -1228,31 +1228,31 @@
         <v>1.54</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.46</v>
+        <v>2.76</v>
       </c>
       <c r="O6" t="n">
         <v>1.48</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q6" t="n">
         <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
         <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
         <v>1.39</v>
@@ -1273,7 +1273,7 @@
         <v>80</v>
       </c>
       <c r="AB6" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
@@ -1285,31 +1285,31 @@
         <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
         <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="G7" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>3.35</v>
@@ -1366,7 +1366,7 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.48</v>
@@ -1384,16 +1384,16 @@
         <v>4.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1402,10 +1402,10 @@
         <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
         <v>12</v>
@@ -1414,10 +1414,10 @@
         <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
@@ -1426,10 +1426,10 @@
         <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="n">
         <v>55</v>
@@ -1448,6 +1448,546 @@
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fortaleza EC</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vasco Da Gama</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Orange County Blues</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>San Antonio FC</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -700,7 +700,7 @@
         <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -715,10 +715,10 @@
         <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -805,10 +805,10 @@
         <v>1.36</v>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
@@ -832,13 +832,13 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
         <v>1.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>3.15</v>
@@ -847,13 +847,13 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V3" t="n">
         <v>1.09</v>
       </c>
       <c r="W3" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
@@ -862,10 +862,10 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA3" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AB3" t="n">
         <v>7.8</v>
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H4" t="n">
         <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.45</v>
@@ -958,31 +958,31 @@
         <v>1.52</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V4" t="n">
         <v>1.8</v>
@@ -994,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
@@ -1003,7 +1003,7 @@
         <v>980</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>7.6</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
         <v>1.47</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
         <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
         <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
         <v>34</v>
@@ -1138,16 +1138,16 @@
         <v>100</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
         <v>13.5</v>
@@ -1177,7 +1177,7 @@
         <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L6" t="n">
         <v>1.54</v>
@@ -1231,19 +1231,19 @@
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O6" t="n">
         <v>1.48</v>
       </c>
       <c r="P6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q6" t="n">
         <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
         <v>4.7</v>
@@ -1255,10 +1255,10 @@
         <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
@@ -1267,28 +1267,28 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC6" t="n">
         <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>55</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
@@ -1297,10 +1297,10 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
         <v>60</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="G7" t="n">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="J7" t="n">
         <v>3.1</v>
@@ -1390,58 +1390,58 @@
         <v>1.88</v>
       </c>
       <c r="V7" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1516,7 +1516,7 @@
         <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="T8" t="n">
         <v>2.14</v>
@@ -1528,7 +1528,7 @@
         <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X8" t="n">
         <v>8.6</v>
@@ -1576,7 +1576,7 @@
         <v>65</v>
       </c>
       <c r="AM8" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN8" t="n">
         <v>980</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
         <v>3.35</v>
@@ -1624,7 +1624,7 @@
         <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
@@ -1633,73 +1633,73 @@
         <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.38</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
         <v>980</v>
@@ -1711,7 +1711,7 @@
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1750,13 +1750,13 @@
         <v>3.05</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
         <v>3.05</v>
@@ -1777,10 +1777,10 @@
         <v>1.52</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
         <v>1.21</v>
@@ -1792,13 +1792,13 @@
         <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
         <v>1.56</v>
       </c>
       <c r="W10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X10" t="n">
         <v>9.199999999999999</v>
@@ -1843,16 +1843,16 @@
         <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
         <v>210</v>
       </c>
       <c r="AN10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="G11" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>3.95</v>
@@ -1903,19 +1903,19 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
         <v>3.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R11" t="n">
         <v>1.35</v>
@@ -1924,58 +1924,58 @@
         <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
         <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
         <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>960</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF11" t="n">
         <v>18</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
         <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="H2" t="n">
         <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,19 +694,19 @@
         <v>3.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
         <v>1.89</v>
@@ -718,7 +718,7 @@
         <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Slovakian 2 Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Lokomotiva Zvolen</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Malzenice</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="G3" t="n">
-        <v>1.39</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>1.96</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3</v>
+        <v>1.96</v>
       </c>
       <c r="K3" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.95</v>
+        <v>1.96</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>2.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>3.45</v>
+        <v>1.96</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>1.39</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>2.24</v>
+        <v>11.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W4" t="n">
         <v>3.45</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.29</v>
-      </c>
       <c r="X4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>11</v>
       </c>
-      <c r="Y4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>120</v>
-      </c>
       <c r="AK4" t="n">
-        <v>65</v>
+        <v>15.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AN4" t="n">
-        <v>100</v>
+        <v>6.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>28</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.12</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>2.24</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN5" t="n">
         <v>100</v>
       </c>
-      <c r="AB5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>980</v>
-      </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.58</v>
+        <v>2.18</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG6" t="n">
         <v>11</v>
       </c>
-      <c r="Z6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL6" t="n">
         <v>55</v>
       </c>
-      <c r="AF6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>60</v>
-      </c>
       <c r="AM6" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,17 +1328,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1348,25 +1348,25 @@
         <v>2.64</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
         <v>1.48</v>
@@ -1375,19 +1375,19 @@
         <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
         <v>4.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
         <v>1.38</v>
@@ -1399,37 +1399,37 @@
         <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
         <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="n">
         <v>16</v>
       </c>
-      <c r="AE7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>980</v>
-      </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
         <v>980</v>
@@ -1441,7 +1441,7 @@
         <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.64</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P8" t="n">
         <v>1.6</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="W8" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL8" t="n">
         <v>70</v>
       </c>
-      <c r="AF8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>65</v>
-      </c>
       <c r="AM8" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AO8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,94 +1603,94 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.14</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.89</v>
-      </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="V9" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>980</v>
       </c>
       <c r="AA9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE9" t="n">
         <v>70</v>
       </c>
-      <c r="AB9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>980</v>
-      </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
         <v>980</v>
@@ -1699,7 +1699,7 @@
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="n">
         <v>980</v>
@@ -1708,16 +1708,16 @@
         <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -1738,88 +1738,88 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="G10" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.15</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.68</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="X10" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>980</v>
@@ -1834,22 +1834,22 @@
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
         <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,135 +1858,405 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CD Marathon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Real Espana</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G12" t="n">
+        <v>610</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I12" t="n">
+        <v>870</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K12" t="n">
+        <v>950</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>US United Soccer League</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>2025-10-15</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>23:00:00</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Orange County Blues</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>San Antonio FC</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F13" t="n">
         <v>2.12</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G13" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.25</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="I13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.95</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="L13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M13" t="n">
         <v>1.06</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N13" t="n">
         <v>3.65</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O13" t="n">
         <v>1.29</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="P13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.35</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S13" t="n">
         <v>3.2</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T13" t="n">
         <v>1.72</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U13" t="n">
         <v>2.12</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V13" t="n">
         <v>1.36</v>
       </c>
-      <c r="W11" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="W13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA13" t="n">
         <v>960</v>
       </c>
-      <c r="AB11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE11" t="n">
+      <c r="AB13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
         <v>44</v>
       </c>
-      <c r="AF11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
         <v>21</v>
       </c>
-      <c r="AI11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="AO13" t="n">
         <v>46</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="H2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
         <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.96</v>
+        <v>3.95</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.96</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>1.96</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.19</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.38</v>
@@ -964,7 +964,7 @@
         <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
         <v>2.08</v>
@@ -976,10 +976,10 @@
         <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -988,7 +988,7 @@
         <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
@@ -997,7 +997,7 @@
         <v>32</v>
       </c>
       <c r="Z4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA4" t="n">
         <v>430</v>
@@ -1024,7 +1024,7 @@
         <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="n">
         <v>11</v>
@@ -1042,7 +1042,7 @@
         <v>6.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
@@ -1072,37 +1072,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I5" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="J5" t="n">
         <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.52</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q5" t="n">
         <v>2.34</v>
@@ -1111,19 +1111,19 @@
         <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>1.88</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="W5" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
@@ -1138,7 +1138,7 @@
         <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
         <v>7.6</v>
@@ -1150,10 +1150,10 @@
         <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>980</v>
@@ -1165,7 +1165,7 @@
         <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="n">
         <v>95</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
         <v>2.18</v>
@@ -1216,34 +1216,34 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q6" t="n">
         <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
         <v>4.4</v>
@@ -1252,10 +1252,10 @@
         <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
         <v>1.85</v>
@@ -1264,7 +1264,7 @@
         <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
         <v>34</v>
@@ -1273,25 +1273,25 @@
         <v>100</v>
       </c>
       <c r="AB6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC6" t="n">
         <v>8.6</v>
       </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
         <v>90</v>
@@ -1300,16 +1300,16 @@
         <v>36</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
         <v>95</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="G7" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
         <v>3.15</v>
@@ -1366,40 +1366,40 @@
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
         <v>12</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
         <v>24</v>
@@ -1408,13 +1408,13 @@
         <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
         <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>55</v>
@@ -1423,7 +1423,7 @@
         <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
@@ -1432,19 +1432,19 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
         <v>190</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G8" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="O8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
         <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
         <v>12.5</v>
@@ -1540,16 +1540,16 @@
         <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
         <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
         <v>60</v>
@@ -1567,7 +1567,7 @@
         <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK8" t="n">
         <v>42</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
         <v>1.6</v>
@@ -1636,16 +1636,16 @@
         <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R9" t="n">
         <v>1.19</v>
@@ -1654,16 +1654,16 @@
         <v>5.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
         <v>8.6</v>
@@ -1717,7 +1717,7 @@
         <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G10" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>3.5</v>
@@ -1771,28 +1771,28 @@
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
         <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
         <v>1.38</v>
@@ -1801,58 +1801,58 @@
         <v>1.7</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AB10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL10" t="n">
         <v>60</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>980</v>
-      </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.15</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.1</v>
       </c>
       <c r="K11" t="n">
         <v>3.25</v>
@@ -1906,52 +1906,52 @@
         <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R11" t="n">
         <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X11" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AA11" t="n">
         <v>980</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD11" t="n">
         <v>13.5</v>
@@ -1960,19 +1960,19 @@
         <v>980</v>
       </c>
       <c r="AF11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI11" t="n">
         <v>980</v>
       </c>
-      <c r="AG11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="AK11" t="n">
         <v>980</v>
@@ -1984,10 +1984,10 @@
         <v>210</v>
       </c>
       <c r="AN11" t="n">
-        <v>65</v>
+        <v>960</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2029,7 @@
         <v>870</v>
       </c>
       <c r="J12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
         <v>950</v>
@@ -2041,19 +2041,19 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="O12" t="n">
         <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
         <v>1.27</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S12" t="n">
         <v>1.27</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.29</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S13" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="V13" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
         <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>960</v>
+        <v>90</v>
       </c>
       <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
         <v>36</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>4.7</v>
       </c>
       <c r="I2" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
@@ -685,28 +685,28 @@
         <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
         <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
         <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
         <v>1.86</v>
@@ -715,10 +715,10 @@
         <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="H3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
@@ -820,13 +820,13 @@
         <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
@@ -835,25 +835,25 @@
         <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
@@ -868,37 +868,37 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG3" t="n">
         <v>11</v>
       </c>
-      <c r="AD3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>9.6</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>1.26</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.08</v>
+        <v>1.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.19</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>1.19</v>
       </c>
       <c r="T4" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>1.41</v>
       </c>
       <c r="H5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P5" t="n">
         <v>2.08</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="Q5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W5" t="n">
         <v>3.4</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.28</v>
-      </c>
       <c r="X5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AK5" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>85</v>
-      </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AN5" t="n">
-        <v>100</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>2.16</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="W6" t="n">
-        <v>1.85</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB6" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.5</v>
+        <v>36</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="AJ6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P7" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="W7" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC7" t="n">
         <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>960</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL7" t="n">
         <v>55</v>
       </c>
-      <c r="AF7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AM7" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO7" t="n">
         <v>75</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O8" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="n">
         <v>70</v>
       </c>
-      <c r="AB8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AJ8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL8" t="n">
         <v>60</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>70</v>
       </c>
       <c r="AM8" t="n">
         <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>2.72</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.64</v>
+        <v>2.86</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="P9" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="W9" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="X9" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AE9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI9" t="n">
         <v>70</v>
       </c>
-      <c r="AF9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>110</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AO9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G10" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="V10" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
         <v>29</v>
       </c>
-      <c r="AA10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>24</v>
-      </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="n">
         <v>40</v>
       </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.1</v>
+        <v>2.32</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
-        <v>2.62</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.74</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N11" t="n">
         <v>3.15</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.7</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="X11" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC11" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Y11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD11" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK11" t="n">
         <v>36</v>
       </c>
-      <c r="AI11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>320</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>980</v>
-      </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>960</v>
+        <v>32</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,123 +2003,123 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Real Espana</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>610</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>2.74</v>
       </c>
       <c r="I12" t="n">
-        <v>870</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.03</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>3.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>1.26</v>
+        <v>2.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.27</v>
+        <v>2.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.27</v>
+        <v>5.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,135 +2128,270 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CD Marathon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Real Espana</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G13" t="n">
+        <v>610</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I13" t="n">
+        <v>870</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K13" t="n">
+        <v>950</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>US United Soccer League</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2025-10-15</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>23:00:00</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Orange County Blues</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>San Antonio FC</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="F14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.4</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="I14" t="n">
         <v>3.7</v>
       </c>
-      <c r="T13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="J14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>960</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD14" t="n">
         <v>16</v>
       </c>
-      <c r="Y13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AE14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK14" t="n">
         <v>32</v>
       </c>
-      <c r="AA13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO13" t="n">
+      <c r="AL14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO14" t="n">
         <v>65</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -667,43 +667,43 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
         <v>3.3</v>
@@ -712,19 +712,19 @@
         <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -808,13 +808,13 @@
         <v>1.88</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
         <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
         <v>4.6</v>
@@ -838,16 +838,16 @@
         <v>1.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
         <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
         <v>1.22</v>
@@ -856,13 +856,13 @@
         <v>2.12</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
         <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -871,16 +871,16 @@
         <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -889,16 +889,16 @@
         <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
         <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>11.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -949,7 +949,7 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>2.44</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>
@@ -961,28 +961,28 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="O4" t="n">
         <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="Q4" t="n">
         <v>1.19</v>
       </c>
       <c r="R4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
         <v>1.19</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="H5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="I5" t="n">
         <v>10.5</v>
       </c>
       <c r="J5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K5" t="n">
         <v>5.3</v>
       </c>
-      <c r="K5" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
         <v>1.41</v>
@@ -1114,28 +1114,28 @@
         <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V5" t="n">
         <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AA5" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="AB5" t="n">
         <v>7.8</v>
@@ -1144,25 +1144,25 @@
         <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF5" t="n">
         <v>7.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>32</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK5" t="n">
         <v>15.5</v>
@@ -1171,13 +1171,13 @@
         <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
         <v>2.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J6" t="n">
         <v>3.3</v>
@@ -1231,31 +1231,31 @@
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
         <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
         <v>2.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W6" t="n">
         <v>1.28</v>
@@ -1270,7 +1270,7 @@
         <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="n">
         <v>13.5</v>
@@ -1288,31 +1288,31 @@
         <v>36</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>960</v>
+        <v>170</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G8" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
         <v>3.4</v>
@@ -1492,22 +1492,22 @@
         <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
         <v>2.4</v>
@@ -1516,49 +1516,49 @@
         <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W8" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>370</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC8" t="n">
         <v>7.2</v>
       </c>
       <c r="AD8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF8" t="n">
         <v>15</v>
       </c>
-      <c r="AE8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
         <v>22</v>
@@ -1567,22 +1567,22 @@
         <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO8" t="n">
         <v>60</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
         <v>2.72</v>
@@ -1621,22 +1621,22 @@
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O9" t="n">
         <v>1.49</v>
@@ -1660,7 +1660,7 @@
         <v>1.86</v>
       </c>
       <c r="V9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
         <v>1.58</v>
@@ -1669,37 +1669,37 @@
         <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
         <v>18.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
         <v>50</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
         <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1768,19 +1768,19 @@
         <v>1.59</v>
       </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="O10" t="n">
         <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
         <v>1.19</v>
@@ -1789,13 +1789,13 @@
         <v>5.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U10" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W10" t="n">
         <v>1.67</v>
@@ -1807,19 +1807,19 @@
         <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
         <v>100</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC10" t="n">
         <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
         <v>65</v>
@@ -1828,16 +1828,16 @@
         <v>16.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
         <v>100</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="n">
         <v>42</v>
@@ -1891,7 +1891,7 @@
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -1906,13 +1906,13 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
         <v>2.18</v>
@@ -1921,7 +1921,7 @@
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
         <v>1.89</v>
@@ -1939,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
         <v>29</v>
@@ -1951,43 +1951,43 @@
         <v>10</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
         <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2059,43 +2059,43 @@
         <v>5.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X12" t="n">
         <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
         <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
         <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2107,13 +2107,13 @@
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="AK12" t="n">
         <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
         <v>210</v>
@@ -2122,7 +2122,7 @@
         <v>960</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2290,58 +2290,58 @@
         <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
         <v>4.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U14" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W14" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
         <v>12.5</v>
@@ -2353,7 +2353,7 @@
         <v>960</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
         <v>8.4</v>
@@ -2377,7 +2377,7 @@
         <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
         <v>32</v>
@@ -2389,10 +2389,10 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
         <v>5.2</v>
@@ -679,7 +679,7 @@
         <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>4.4</v>
@@ -691,16 +691,16 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
         <v>1.91</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
         <v>1.38</v>
@@ -709,16 +709,16 @@
         <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
         <v>14</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
         <v>1.88</v>
@@ -811,7 +811,7 @@
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.85</v>
@@ -820,7 +820,7 @@
         <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -856,10 +856,10 @@
         <v>2.12</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,16 +868,16 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>13</v>
@@ -886,25 +886,25 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO3" t="n">
         <v>300</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.41</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.43</v>
-      </c>
       <c r="H5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I5" t="n">
         <v>10.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.37</v>
@@ -1102,10 +1102,10 @@
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
         <v>1.41</v>
@@ -1120,22 +1120,22 @@
         <v>1.79</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA5" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB5" t="n">
         <v>7.8</v>
@@ -1156,10 +1156,10 @@
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ5" t="n">
         <v>11.5</v>
@@ -1168,7 +1168,7 @@
         <v>15.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
         <v>200</v>
@@ -1177,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -1210,19 +1210,19 @@
         <v>4.3</v>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.1</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.14</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
         <v>1.52</v>
@@ -1231,49 +1231,49 @@
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
         <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U6" t="n">
         <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>7.4</v>
@@ -1282,37 +1282,37 @@
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="AO6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1345,10 +1345,10 @@
         <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I7" t="n">
         <v>3.85</v>
@@ -1363,79 +1363,79 @@
         <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
         <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
         <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
         <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
         <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
@@ -1444,10 +1444,10 @@
         <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G8" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
@@ -1504,10 +1504,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" t="n">
         <v>2.4</v>
@@ -1516,7 +1516,7 @@
         <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1525,10 +1525,10 @@
         <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W8" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X8" t="n">
         <v>10</v>
@@ -1552,34 +1552,34 @@
         <v>14.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF8" t="n">
         <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="n">
         <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="n">
         <v>60</v>
@@ -1615,10 +1615,10 @@
         <v>2.54</v>
       </c>
       <c r="G9" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
         <v>3.35</v>
@@ -1630,22 +1630,22 @@
         <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O9" t="n">
         <v>1.49</v>
       </c>
       <c r="P9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
         <v>1.86</v>
@@ -1666,55 +1666,55 @@
         <v>1.58</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
         <v>18.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
         <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,10 +1750,10 @@
         <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
         <v>3.9</v>
@@ -1765,13 +1765,13 @@
         <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="O10" t="n">
         <v>1.57</v>
@@ -1780,7 +1780,7 @@
         <v>1.53</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="R10" t="n">
         <v>1.19</v>
@@ -1789,58 +1789,58 @@
         <v>5.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="V10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W10" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="AB10" t="n">
         <v>7.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL10" t="n">
         <v>80</v>
@@ -1849,10 +1849,10 @@
         <v>240</v>
       </c>
       <c r="AN10" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1885,13 +1885,13 @@
         <v>2.32</v>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -1906,7 +1906,7 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -1921,10 +1921,10 @@
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
         <v>1.98</v>
@@ -1933,58 +1933,58 @@
         <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
         <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
         <v>16.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="I12" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2041,10 +2041,10 @@
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P12" t="n">
         <v>1.57</v>
@@ -2062,61 +2062,61 @@
         <v>2.12</v>
       </c>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W12" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>430</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
         <v>960</v>
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>610</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>870</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>1.26</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.27</v>
+        <v>1.94</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>1.27</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2221,7 +2221,7 @@
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
         <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
         <v>3.75</v>
@@ -2311,7 +2311,7 @@
         <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>1.41</v>
@@ -2320,7 +2320,7 @@
         <v>1.71</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
@@ -2335,55 +2335,55 @@
         <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2392,7 +2392,7 @@
         <v>30</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -670,61 +670,61 @@
         <v>1.67</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V2" t="n">
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,43 +733,43 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>23</v>
-      </c>
       <c r="AG2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK2" t="n">
         <v>19</v>
       </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>70</v>
-      </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,67 +802,67 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
         <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V3" t="n">
         <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
         <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
@@ -877,16 +877,16 @@
         <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
         <v>300</v>
@@ -895,19 +895,19 @@
         <v>20</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
         <v>90</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -958,7 +958,7 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
         <v>1.32</v>
@@ -979,7 +979,7 @@
         <v>1.19</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
         <v>1.03</v>
@@ -1075,61 +1075,61 @@
         <v>1.39</v>
       </c>
       <c r="G5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
         <v>10.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
         <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U5" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
         <v>90</v>
@@ -1174,7 +1174,7 @@
         <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
         <v>250</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="G6" t="n">
         <v>4.8</v>
@@ -1216,7 +1216,7 @@
         <v>2.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1225,7 +1225,7 @@
         <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1246,19 +1246,19 @@
         <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
         <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X6" t="n">
         <v>10</v>
@@ -1270,19 +1270,19 @@
         <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF6" t="n">
         <v>30</v>
@@ -1291,7 +1291,7 @@
         <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
         <v>50</v>
@@ -1309,10 +1309,10 @@
         <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
         <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
         <v>3.4</v>
@@ -1363,37 +1363,37 @@
         <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X7" t="n">
         <v>11.5</v>
@@ -1414,7 +1414,7 @@
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>55</v>
@@ -1441,7 +1441,7 @@
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G8" t="n">
         <v>2.6</v>
@@ -1495,7 +1495,7 @@
         <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1507,10 +1507,10 @@
         <v>1.48</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R8" t="n">
         <v>1.23</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="H9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.35</v>
       </c>
       <c r="J9" t="n">
         <v>3.15</v>
@@ -1630,22 +1630,22 @@
         <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
@@ -1660,40 +1660,40 @@
         <v>1.86</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="W9" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
         <v>980</v>
@@ -1705,13 +1705,13 @@
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1765,7 +1765,7 @@
         <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
@@ -1774,43 +1774,43 @@
         <v>2.62</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="P10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
         <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W10" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X10" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="n">
-        <v>990</v>
+        <v>100</v>
       </c>
       <c r="AB10" t="n">
         <v>7.2</v>
@@ -1819,25 +1819,25 @@
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG10" t="n">
         <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
         <v>110</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="n">
         <v>40</v>
@@ -1849,10 +1849,10 @@
         <v>240</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1900,22 +1900,22 @@
         <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
         <v>1.28</v>
@@ -1924,13 +1924,13 @@
         <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
         <v>1.98</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W11" t="n">
         <v>1.71</v>
@@ -1966,7 +1966,7 @@
         <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2020,13 +2020,13 @@
         <v>3.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H12" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2035,13 +2035,13 @@
         <v>3.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="O12" t="n">
         <v>1.55</v>
@@ -2050,22 +2050,22 @@
         <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
         <v>1.43</v>
@@ -2086,7 +2086,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>13</v>
@@ -2107,19 +2107,19 @@
         <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK12" t="n">
         <v>50</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
         <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>40</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
         <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
         <v>4.4</v>
@@ -2167,40 +2167,40 @@
         <v>2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R13" t="n">
         <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
         <v>1.64</v>
@@ -2221,7 +2221,7 @@
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2287,64 +2287,64 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V14" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
         <v>32</v>
@@ -2353,46 +2353,46 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
         <v>16.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>46</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>6.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>1.87</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>2.08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>1.13</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>55</v>
       </c>
       <c r="T2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>1.93</v>
       </c>
-      <c r="U2" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
         <v>970</v>
       </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>55</v>
-      </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>180</v>
+        <v>970</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="AL2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
         <v>21</v>
       </c>
-      <c r="Z3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
       <c r="AI3" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.4</v>
+        <v>85</v>
       </c>
       <c r="AO3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,55 +937,55 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>2.44</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.21</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
         <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
         <v>1.01</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I5" t="n">
         <v>10</v>
       </c>
-      <c r="I5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="J5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K5" t="n">
         <v>5.4</v>
       </c>
-      <c r="K5" t="n">
-        <v>5.6</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.12</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.18</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
         <v>32</v>
@@ -1138,7 +1138,7 @@
         <v>390</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1147,19 +1147,19 @@
         <v>36</v>
       </c>
       <c r="AE5" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
         <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="n">
         <v>11.5</v>
@@ -1168,16 +1168,16 @@
         <v>15.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
         <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
         <v>2.04</v>
@@ -1222,13 +1222,13 @@
         <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
@@ -1237,31 +1237,31 @@
         <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
         <v>4.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
         <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y6" t="n">
         <v>7.4</v>
@@ -1270,13 +1270,13 @@
         <v>11.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
         <v>11</v>
@@ -1285,31 +1285,31 @@
         <v>25</v>
       </c>
       <c r="AF6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
         <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
         <v>90</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AO6" t="n">
         <v>22</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G7" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
         <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
         <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1369,52 +1369,52 @@
         <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R7" t="n">
         <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="X7" t="n">
         <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
         <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
         <v>55</v>
@@ -1429,25 +1429,25 @@
         <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,43 +1477,43 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.35</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
         <v>4.8</v>
@@ -1525,10 +1525,10 @@
         <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W8" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="X8" t="n">
         <v>10</v>
@@ -1537,25 +1537,25 @@
         <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
         <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1567,19 +1567,19 @@
         <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN8" t="n">
         <v>55</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>38</v>
       </c>
       <c r="AO8" t="n">
         <v>60</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="G9" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>3.15</v>
@@ -1630,74 +1630,74 @@
         <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T9" t="n">
         <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB9" t="n">
         <v>9.4</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AC9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>22</v>
       </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>980</v>
-      </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
@@ -1705,19 +1705,19 @@
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="G10" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
         <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.62</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.8</v>
-      </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="U10" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.75</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.67</v>
-      </c>
       <c r="X10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>32</v>
       </c>
-      <c r="AI10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>42</v>
-      </c>
       <c r="AK10" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G11" t="n">
         <v>2.4</v>
@@ -1906,16 +1906,16 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
         <v>1.28</v>
@@ -1924,43 +1924,43 @@
         <v>4.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>1.98</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
         <v>1.71</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
@@ -1969,25 +1969,25 @@
         <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="G12" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="I12" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2050,7 +2050,7 @@
         <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R12" t="n">
         <v>1.2</v>
@@ -2065,40 +2065,40 @@
         <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="W12" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
         <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2107,10 +2107,10 @@
         <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
         <v>80</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2152,31 +2152,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>980</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>1.38</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>1.09</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>1.86</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2185,25 +2185,25 @@
         <v>1.81</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>2.06</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.03</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2287,109 +2287,109 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
         <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="U14" t="n">
-        <v>1.94</v>
+        <v>1.03</v>
       </c>
       <c r="V14" t="n">
         <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Matsumoto</t>
+          <t>CD Victoria</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.18</v>
+        <v>1.76</v>
       </c>
       <c r="G2" t="n">
-        <v>1.2</v>
+        <v>1.96</v>
       </c>
       <c r="H2" t="n">
-        <v>46</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J2" t="n">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.87</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>2.08</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>1.13</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
         <v>55</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>220</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Slovakian 2 Liga</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lokomotiva Zvolen</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Malzenice</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>9.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>85</v>
+        <v>6.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.76</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>2.06</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>1.11</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.2</v>
+        <v>2.44</v>
       </c>
       <c r="R4" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>4.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>2.14</v>
       </c>
       <c r="U4" t="n">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="V4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.27</v>
       </c>
-      <c r="W4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.4</v>
+        <v>2.22</v>
       </c>
       <c r="G5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.41</v>
       </c>
-      <c r="H5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S5" t="n">
         <v>4.2</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.3</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.8</v>
       </c>
-      <c r="V5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>390</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7.4</v>
       </c>
-      <c r="AC5" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD5" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
-        <v>230</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>2.64</v>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>2.68</v>
       </c>
       <c r="H6" t="n">
-        <v>2.04</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>2.08</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
         <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
         <v>4.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.93</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="X6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK6" t="n">
         <v>34</v>
       </c>
-      <c r="AG6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>75</v>
-      </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>3.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="P7" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="W7" t="n">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL7" t="n">
         <v>65</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>46</v>
-      </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="G8" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="P8" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AA8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="n">
         <v>70</v>
       </c>
-      <c r="AB8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>48</v>
-      </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AK8" t="n">
         <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.02</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.87</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="n">
         <v>60</v>
       </c>
-      <c r="AB9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1738,25 +1738,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>3.65</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>2.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2.42</v>
       </c>
       <c r="J10" t="n">
         <v>3.15</v>
@@ -1771,94 +1771,94 @@
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="P10" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="X10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
         <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
         <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>950</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.5</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.2</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="X11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>US United Soccer League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,395 +2003,125 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Orange County Blues</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>San Antonio FC</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.6</v>
       </c>
-      <c r="G12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5.5</v>
-      </c>
       <c r="T12" t="n">
-        <v>2.14</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.37</v>
+        <v>1.81</v>
       </c>
       <c r="X12" t="n">
-        <v>8.4</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-10-15</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CD Marathon</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Real Espana</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G13" t="n">
-        <v>980</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>US United Soccer League</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-10-15</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Orange County Blues</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>San Antonio FC</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X14" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO14" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -691,19 +691,19 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
         <v>2.64</v>
@@ -712,67 +712,67 @@
         <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO2" t="n">
         <v>42</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,49 +802,49 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.42</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.43</v>
-      </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="I3" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
         <v>1.92</v>
@@ -853,25 +853,25 @@
         <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>32</v>
@@ -880,13 +880,13 @@
         <v>140</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>120</v>
@@ -898,13 +898,13 @@
         <v>14.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>170</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="G4" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
@@ -955,10 +955,10 @@
         <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
@@ -967,49 +967,49 @@
         <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
         <v>25</v>
@@ -1018,31 +1018,31 @@
         <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK4" t="n">
         <v>75</v>
       </c>
       <c r="AL4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.45</v>
       </c>
       <c r="L5" t="n">
         <v>1.49</v>
@@ -1096,85 +1096,85 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
         <v>2.24</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
         <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X5" t="n">
         <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
         <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
         <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
         <v>75</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="G6" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.3</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="W6" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="n">
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN6" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="G7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I7" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="J7" t="n">
         <v>3.15</v>
@@ -1360,55 +1360,55 @@
         <v>3.25</v>
       </c>
       <c r="L7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.54</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.56</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X7" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z7" t="n">
         <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
         <v>7.2</v>
@@ -1417,37 +1417,37 @@
         <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -1480,13 +1480,13 @@
         <v>2.18</v>
       </c>
       <c r="G8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I8" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.3</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1501,31 +1501,31 @@
         <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T8" t="n">
         <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
         <v>1.83</v>
@@ -1540,13 +1540,13 @@
         <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
         <v>7.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
         <v>18</v>
@@ -1558,16 +1558,16 @@
         <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
         <v>30</v>
@@ -1576,13 +1576,13 @@
         <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
         <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>2.44</v>
       </c>
       <c r="G9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
@@ -1627,46 +1627,46 @@
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>11.5</v>
@@ -1675,31 +1675,31 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
@@ -1708,16 +1708,16 @@
         <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
         <v>2.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J10" t="n">
         <v>3.15</v>
@@ -1780,31 +1780,31 @@
         <v>1.57</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W10" t="n">
         <v>1.37</v>
       </c>
       <c r="X10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z10" t="n">
         <v>13</v>
@@ -1813,10 +1813,10 @@
         <v>36</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
         <v>12</v>
@@ -1849,7 +1849,7 @@
         <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>950</v>
+        <v>90</v>
       </c>
       <c r="AO10" t="n">
         <v>34</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
@@ -1894,46 +1894,46 @@
         <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.45</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.7</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>1.44</v>
@@ -2041,19 +2041,19 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q12" t="n">
         <v>2.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
         <v>3.6</v>
@@ -2062,37 +2062,37 @@
         <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
         <v>14.5</v>
@@ -2101,28 +2101,28 @@
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>SE Palmeiras</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CD Victoria</t>
+          <t>Red Bull Bragantino</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.02</v>
+        <v>500</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>1.01</v>
       </c>
       <c r="AO2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SE Palmeiras</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Red Bull Bragantino</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.41</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>9.4</v>
+        <v>1.27</v>
       </c>
       <c r="I3" t="n">
-        <v>9.6</v>
+        <v>1.28</v>
       </c>
       <c r="J3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Z3" t="n">
         <v>5.3</v>
       </c>
-      <c r="K3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>85</v>
-      </c>
       <c r="AA3" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>14.5</v>
+        <v>440</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>1.43</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.02</v>
+        <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>3.55</v>
       </c>
       <c r="S4" t="n">
-        <v>4.9</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
+        <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
         <v>7</v>
       </c>
-      <c r="Z4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>75</v>
-      </c>
       <c r="AL4" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AN4" t="n">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Ceara SC Fortaleza</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>2.42</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>2.44</v>
       </c>
       <c r="L5" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>1.64</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>2.52</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.17</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>6.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>3.85</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>1.32</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.83</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>3.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD5" t="n">
         <v>28</v>
       </c>
-      <c r="AA5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ5" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="AO5" t="n">
-        <v>75</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ceara SC Fortaleza</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.56</v>
+        <v>3.25</v>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="L6" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>4.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.54</v>
+        <v>1.26</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>5.2</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="W6" t="n">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="X6" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>7.2</v>
       </c>
       <c r="AI6" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="AJ6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.98</v>
+        <v>2.12</v>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>2.14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.74</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.82</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.53</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.47</v>
-      </c>
       <c r="P7" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.97</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.88</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Fortaleza EC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Vasco Da Gama</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="W8" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="X8" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
         <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC8" t="n">
         <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fortaleza EC</t>
+          <t>Atletico MG</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vasco Da Gama</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>3.75</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.14</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.89</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="W9" t="n">
-        <v>1.66</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="Y9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD9" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AE9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI9" t="n">
         <v>60</v>
       </c>
-      <c r="AB9" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="AO9" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Real Espana</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.6</v>
+        <v>2.22</v>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>2.42</v>
       </c>
       <c r="H10" t="n">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>2.44</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.22</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="X10" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>US United Soccer League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,261 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>23:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CD Marathon</t>
+          <t>Orange County Blues</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Real Espana</t>
+          <t>San Antonio FC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.34</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="S11" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>US United Soccer League</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-10-15</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>23:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Orange County Blues</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>San Antonio FC</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
